--- a/PlanejamentoPRA.xlsx
+++ b/PlanejamentoPRA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udesc.CCTCC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\source\repos\ProjetoArquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20CE7BA-61C5-4EC7-97B3-90FAF34AFEB1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
   <si>
     <t>Pessoa</t>
   </si>
@@ -105,12 +106,18 @@
   </si>
   <si>
     <t>Data Entrega Real</t>
+  </si>
+  <si>
+    <t>Completo (V1)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -183,12 +196,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -462,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H4" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +503,7 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -507,64 +533,82 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <v>43401</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="9">
+        <v>43410</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="9">
         <v>43408</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="9">
+        <v>43410</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="9">
         <v>43408</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="9">
+        <v>43410</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
